--- a/CRF.xlsx
+++ b/CRF.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lohith_R\Documents\LatestCode\react-magneto-v1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066C90C7-DCA0-4058-B55B-2518C3BFEEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D4F9310-EC35-44C5-82D9-D2535220846F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="104">
   <si>
     <t>Components</t>
   </si>
@@ -331,13 +325,19 @@
   </si>
   <si>
     <t>stickyHeader</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>materialUi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -480,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -674,21 +674,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F336C851-5B66-47C2-A614-DA37A13E6E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -703,7 +703,7 @@
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,15 +753,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -787,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -816,7 +822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -851,7 +857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -889,7 +895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -918,7 +924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -947,7 +953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -976,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>97</v>
       </c>
